--- a/ExeclTool/design/cfg/1_常量表.xlsx
+++ b/ExeclTool/design/cfg/1_常量表.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11865" windowHeight="7245"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="常量" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +41,9 @@
     <t>paramIntArray</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -52,16 +68,19 @@
     <t>STRAIGHT_MOVE_FRAMES</t>
   </si>
   <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>OBLIQUE_MOVE_FRAMES</t>
+  </si>
+  <si>
     <t>[17,15,13,11,9,7]</t>
   </si>
   <si>
-    <t>OBLIQUE_MOVE_FRAMES</t>
+    <t>MATCH_MOVE_SPEED_FRAME</t>
   </si>
   <si>
     <t>[23,10,17,14,11,8]</t>
-  </si>
-  <si>
-    <t>MATCH_MOVE_SPEED_FRAME</t>
   </si>
   <si>
     <t>SWAP_MOVE_SPEED_FRAME</t>
@@ -70,14 +89,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,36 +107,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,14 +144,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,6 +188,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -230,7 +248,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,49 +284,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,121 +422,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,21 +475,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,6 +507,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,88 +578,61 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -629,121 +641,181 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -753,7 +825,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -886,7 +958,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -897,31 +968,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -943,7 +1014,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1001,7 +1072,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -1014,13 +1085,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -1038,106 +1108,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="27.0083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.15" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.8583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.575" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="7"/>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="12">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="12">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
+    <row r="8" ht="18.75" customHeight="1"/>
+    <row r="9" ht="18.75" customHeight="1"/>
+    <row r="10" ht="18.75" customHeight="1"/>
+    <row r="11" ht="18.75" customHeight="1"/>
+    <row r="12" ht="19.5" customHeight="1" spans="2:3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
+    <row r="13" ht="19.5" customHeight="1" spans="4:4">
+      <c r="D13" s="13"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="3"/>
+    <row r="14" ht="18.75" customHeight="1"/>
+    <row r="15" ht="18.75" customHeight="1"/>
+    <row r="16" ht="18.75" customHeight="1"/>
+    <row r="17" ht="18.75" customHeight="1"/>
+    <row r="18" ht="18.75" customHeight="1"/>
+    <row r="19" ht="18.75" customHeight="1"/>
+    <row r="20" ht="18.75" customHeight="1"/>
+    <row r="21" ht="18.75" customHeight="1"/>
+    <row r="22" ht="18.75" customHeight="1"/>
+    <row r="23" ht="18.75" customHeight="1"/>
+    <row r="24" ht="18.75" customHeight="1"/>
+    <row r="25" ht="18.75" customHeight="1"/>
+    <row r="26" ht="18.75" customHeight="1"/>
+    <row r="27" ht="18.75" customHeight="1"/>
+    <row r="28" ht="18.75" customHeight="1"/>
+    <row r="29" ht="18.75" customHeight="1"/>
+    <row r="30" ht="18.75" customHeight="1"/>
+    <row r="31" ht="18.75" customHeight="1"/>
+    <row r="32" ht="18.75" customHeight="1"/>
+    <row r="33" ht="18.75" customHeight="1" spans="5:5">
+      <c r="E33" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>